--- a/statistics/HistoricalDistanceData/historical_distance/Q5598783-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5598783-en.xlsx
@@ -31,67 +31,67 @@
     <t>uri</t>
   </si>
   <si>
+    <t>National Weather Service</t>
+  </si>
+  <si>
+    <t>Great Blizzard of 1899</t>
+  </si>
+  <si>
     <t>Biodiversity Heritage Library</t>
   </si>
   <si>
-    <t>Great Blizzard of 1899</t>
-  </si>
-  <si>
-    <t>National Weather Service</t>
-  </si>
-  <si>
     <t>Canton (historical) in Sharp County AR</t>
   </si>
   <si>
+    <t>National Weather Service Climate</t>
+  </si>
+  <si>
+    <t>EBSCOhost Login</t>
+  </si>
+  <si>
     <t>NWS Rapid City, SD</t>
   </si>
   <si>
-    <t>National Weather Service Climate</t>
-  </si>
-  <si>
-    <t>EBSCOhost Login</t>
+    <t>2008-01-04T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-02-11T00:00:00UTC</t>
   </si>
   <si>
     <t>1899-01-07T00:00:00UTC</t>
   </si>
   <si>
-    <t>2015-02-11T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2008-01-04T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
+    <t>http://www.wrh.noaa.gov/pdt/reference/20080104/index.php?wfo=pdt</t>
+  </si>
+  <si>
+    <t>https://blog.weatherstem.com/great-blizzard-of-1899/</t>
   </si>
   <si>
     <t>https://www.biodiversitylibrary.org/part/88951</t>
   </si>
   <si>
-    <t>https://blog.weatherstem.com/great-blizzard-of-1899/</t>
-  </si>
-  <si>
-    <t>http://www.wrh.noaa.gov/pdt/reference/20080104/index.php?wfo=pdt</t>
-  </si>
-  <si>
     <t>https://arkansas.hometownlocator.com/maps/feature-map,ftc,3,fid,77332,n,canton.cfm</t>
   </si>
   <si>
+    <t>http://w2.weather.gov/climate/xmacis.php?wfo=cle</t>
+  </si>
+  <si>
+    <t>http://search.ebscohost.com/login.aspx?direct=true&amp;db=nfh&amp;AN=2W62900929210&amp;site=eds-live&amp;scope=site</t>
+  </si>
+  <si>
     <t>http://w2.weather.gov/climate/xmacis.php?wfo=unr</t>
-  </si>
-  <si>
-    <t>http://w2.weather.gov/climate/xmacis.php?wfo=cle</t>
-  </si>
-  <si>
-    <t>http://search.ebscohost.com/login.aspx?direct=true&amp;db=nfh&amp;AN=2W62900929210&amp;site=eds-live&amp;scope=site</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>39814</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -513,7 +513,7 @@
         <v>42409</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>39814</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
